--- a/Gradeup- Scrum_v1.5.xlsx
+++ b/Gradeup- Scrum_v1.5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash Ravi\Documents\GitHub\A-Team-DD-v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashank\Documents\GitHub\A-Team\A-Team-DD-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -892,30 +892,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -925,7 +901,7 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1059,43 +1035,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,9 +1061,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,30 +1068,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,27 +1123,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,6 +1134,73 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1254,6 +1213,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF860000"/>
+      <color rgb="FFFF5D5D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1295,7 +1260,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30131455399061025"/>
+          <c:y val="3.0501089324618737E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1510,11 +1482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319083832"/>
-        <c:axId val="319085400"/>
+        <c:axId val="221348288"/>
+        <c:axId val="221350640"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="319083832"/>
+        <c:axId val="221348288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1515,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319085400"/>
+        <c:crossAx val="221350640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,7 +1523,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319085400"/>
+        <c:axId val="221350640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319083832"/>
+        <c:crossAx val="221348288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1623,11 +1595,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4057650" cy="2914650"/>
+    <xdr:ext cx="5781675" cy="3695701"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1915,29 +1887,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -1954,439 +1926,439 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="40"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="88" t="s">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="90" t="s">
+      <c r="E4" s="50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="88" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="73" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="96" t="s">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="88" t="s">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="73" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="96" t="s">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="96" t="s">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="88" t="s">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="90" t="s">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="96" t="s">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="88" t="s">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="73" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="88" t="s">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="73" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="77" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="90" t="s">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="96" t="s">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="77" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="96" t="s">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="90" t="s">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="71" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="96" t="s">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="77" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="88" t="s">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="73" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="88" t="s">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="73" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="73" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2394,7 +2366,6 @@
       <c r="E29" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B29"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -2407,29 +2378,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -2446,706 +2417,706 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="60">
-        <v>8</v>
-      </c>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="63">
+        <v>8</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="48">
         <v>2</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="105"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="E5" s="84"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="48">
         <v>64</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="105"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="E6" s="84"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>16</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="105"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="E7" s="84"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="48">
         <v>16</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="105"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="E8" s="84"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="60">
-        <v>8</v>
-      </c>
-      <c r="D9" s="61" t="s">
+      <c r="C9" s="48">
+        <v>8</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="105"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="E9" s="84"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="48">
         <v>2</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="105"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="60" t="s">
+      <c r="E10" s="84"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="48">
         <v>16</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="60" t="s">
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="60">
-        <v>8</v>
-      </c>
-      <c r="D12" s="61" t="s">
+      <c r="C12" s="48">
+        <v>8</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="64" t="s">
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="52">
         <v>4</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="66"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="60" t="s">
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="48">
         <v>16</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="62"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="68" t="s">
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="56">
         <v>32</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="70"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="60" t="s">
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="60">
-        <v>8</v>
-      </c>
-      <c r="D16" s="61" t="s">
+      <c r="C16" s="48">
+        <v>8</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="62"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="68" t="s">
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="56">
         <v>16</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="70"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="60" t="s">
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="60">
-        <v>8</v>
-      </c>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="48">
+        <v>8</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="62"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="68" t="s">
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="56">
         <v>32</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="70"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="68" t="s">
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="68">
-        <v>8</v>
-      </c>
-      <c r="D20" s="69" t="s">
+      <c r="C20" s="56">
+        <v>8</v>
+      </c>
+      <c r="D20" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="70"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="68" t="s">
+      <c r="E20" s="58"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="56">
         <v>16</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="70"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="68" t="s">
+      <c r="E21" s="58"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="68">
-        <v>8</v>
-      </c>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="56">
+        <v>8</v>
+      </c>
+      <c r="D22" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="70"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="64" t="s">
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="52">
         <v>4</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="66"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="64" t="s">
+      <c r="E23" s="54"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="52">
         <v>4</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="66"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="68" t="s">
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="56">
         <v>16</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="70"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="64" t="s">
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="64">
-        <v>8</v>
-      </c>
-      <c r="D26" s="65" t="s">
+      <c r="C26" s="52">
+        <v>8</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="66"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="68" t="s">
+      <c r="E26" s="54"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="56">
         <v>4</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="70"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="64" t="s">
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="52">
         <v>4</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="66"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="64" t="s">
+      <c r="E28" s="54"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="52">
         <v>4</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="66"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="64" t="s">
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="52">
         <v>4</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="66"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="68" t="s">
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="68">
-        <v>8</v>
-      </c>
-      <c r="D31" s="69" t="s">
+      <c r="C31" s="56">
+        <v>8</v>
+      </c>
+      <c r="D31" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="70"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="68" t="s">
+      <c r="E31" s="58"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="56">
         <v>32</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="70"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="68" t="s">
+      <c r="E32" s="58"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="56">
         <v>16</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="70"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="68" t="s">
+      <c r="E33" s="58"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="68">
-        <v>8</v>
-      </c>
-      <c r="D34" s="69" t="s">
+      <c r="C34" s="56">
+        <v>8</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="70"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="64" t="s">
+      <c r="E34" s="58"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="52">
         <v>4</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="66"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="68" t="s">
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="56">
         <v>16</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="70"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="64" t="s">
+      <c r="E36" s="58"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="52">
         <v>4</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="66"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="64" t="s">
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="52">
         <v>4</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="66"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="48">
         <v>4</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="62"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67" t="s">
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="68">
+      <c r="C40" s="56">
         <v>4</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="70"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="E40" s="58"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="52">
         <v>4</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="66"/>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="64" t="s">
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="52">
         <v>16</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="66"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58" t="s">
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="48">
         <v>2</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="62"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="67" t="s">
+      <c r="E43" s="50"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="68">
+      <c r="C44" s="56">
         <v>2</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="70"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
+      <c r="E44" s="58"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="60">
+      <c r="C45" s="48">
         <v>32</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="62"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67" t="s">
+      <c r="E45" s="50"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="68">
-        <v>8</v>
-      </c>
-      <c r="D46" s="69" t="s">
+      <c r="C46" s="56">
+        <v>8</v>
+      </c>
+      <c r="D46" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="70"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="E46" s="58"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="64">
-        <v>8</v>
-      </c>
-      <c r="D47" s="65" t="s">
+      <c r="C47" s="52">
+        <v>8</v>
+      </c>
+      <c r="D47" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="66"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
+      <c r="E47" s="54"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="52">
         <v>2</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="66"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="71" t="s">
+      <c r="E48" s="54"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="60">
+      <c r="C49" s="79">
         <v>2</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="74"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="62"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3167,864 +3138,864 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="8" style="6" customWidth="1"/>
-    <col min="8" max="16" width="4.6640625" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="17.109375" style="6"/>
+    <col min="8" max="16" width="4.7109375" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="17.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109" t="s">
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="109" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="110"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="101" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="76">
-        <v>8</v>
-      </c>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="103">
+        <v>8</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="76">
-        <v>9</v>
-      </c>
-      <c r="I4" s="76">
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103">
+        <v>8</v>
+      </c>
+      <c r="I4" s="103">
         <v>4</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="103">
         <v>0</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="103">
         <v>0</v>
       </c>
-      <c r="L4" s="76">
+      <c r="L4" s="103">
         <v>0</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="103">
         <v>0</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="103">
         <v>0</v>
       </c>
-      <c r="O4" s="76">
+      <c r="O4" s="103">
         <v>0</v>
       </c>
-      <c r="P4" s="76">
+      <c r="P4" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="106">
         <v>2</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="68">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="103">
         <v>2</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="103">
         <v>2</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="103">
         <v>2</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="103">
         <v>2</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="103">
         <v>2</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="103">
         <v>1</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="103">
         <v>0</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="103">
         <v>0</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="103">
         <v>64</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103">
         <v>64</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="103">
         <v>52</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="103">
         <v>46</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="103">
         <v>40</v>
       </c>
-      <c r="L6" s="60">
+      <c r="L6" s="103">
         <v>36</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="103">
         <v>24</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="103">
         <v>20</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="103">
         <v>16</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="103">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="103">
         <v>16</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60">
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103">
         <v>16</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="103">
         <v>13</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="103">
         <v>10</v>
       </c>
-      <c r="K7" s="60">
-        <v>8</v>
-      </c>
-      <c r="L7" s="60">
+      <c r="K7" s="103">
+        <v>8</v>
+      </c>
+      <c r="L7" s="103">
         <v>7</v>
       </c>
-      <c r="M7" s="60">
-        <v>5</v>
-      </c>
-      <c r="N7" s="60">
-        <v>5</v>
-      </c>
-      <c r="O7" s="60">
+      <c r="M7" s="103">
+        <v>5</v>
+      </c>
+      <c r="N7" s="103">
+        <v>5</v>
+      </c>
+      <c r="O7" s="103">
         <v>0</v>
       </c>
-      <c r="P7" s="60">
+      <c r="P7" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="106">
         <v>16</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="68">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="103">
         <v>16</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="103">
         <v>16</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="103">
         <v>14</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="103">
         <v>12</v>
       </c>
-      <c r="L8" s="68">
-        <v>8</v>
-      </c>
-      <c r="M8" s="68">
-        <v>8</v>
-      </c>
-      <c r="N8" s="68">
-        <v>8</v>
-      </c>
-      <c r="O8" s="68">
+      <c r="L8" s="103">
+        <v>8</v>
+      </c>
+      <c r="M8" s="103">
+        <v>8</v>
+      </c>
+      <c r="N8" s="103">
+        <v>8</v>
+      </c>
+      <c r="O8" s="103">
         <v>2</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="60">
-        <v>8</v>
-      </c>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="103">
+        <v>8</v>
+      </c>
+      <c r="C9" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60">
-        <v>8</v>
-      </c>
-      <c r="I9" s="60">
-        <v>8</v>
-      </c>
-      <c r="J9" s="60">
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103">
+        <v>8</v>
+      </c>
+      <c r="I9" s="103">
+        <v>8</v>
+      </c>
+      <c r="J9" s="103">
         <v>4</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="103">
         <v>4</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="103">
         <v>2</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="103">
         <v>0</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="103">
         <v>0</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="103">
         <v>0</v>
       </c>
-      <c r="P9" s="62">
+      <c r="P9" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="106">
         <v>2</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="68">
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="103">
         <v>2</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="103">
         <v>2</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="103">
         <v>2</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="103">
         <v>2</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="103">
         <v>2</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="103">
         <v>2</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="103">
         <v>2</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="103">
         <v>2</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="106">
         <v>16</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="68">
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="103">
         <v>16</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="103">
         <v>16</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="103">
         <v>16</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="103">
         <v>14</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="103">
         <v>12</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="103">
         <v>6</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="103">
         <v>2</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="103">
         <v>0</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="64">
-        <v>8</v>
-      </c>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="108">
+        <v>8</v>
+      </c>
+      <c r="C12" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="64">
-        <v>8</v>
-      </c>
-      <c r="I12" s="64">
-        <v>8</v>
-      </c>
-      <c r="J12" s="64">
-        <v>8</v>
-      </c>
-      <c r="K12" s="64">
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="103">
+        <v>8</v>
+      </c>
+      <c r="I12" s="103">
+        <v>8</v>
+      </c>
+      <c r="J12" s="103">
+        <v>8</v>
+      </c>
+      <c r="K12" s="103">
         <v>7</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="103">
         <v>7</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="103">
         <v>7</v>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="103">
         <v>6</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="103">
         <v>4</v>
       </c>
-      <c r="P12" s="64">
+      <c r="P12" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="106">
         <v>16</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="68">
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="103">
         <v>16</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="103">
         <v>16</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="103">
         <v>14</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="103">
         <v>13</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="103">
         <v>12</v>
       </c>
-      <c r="M13" s="68">
-        <v>8</v>
-      </c>
-      <c r="N13" s="68">
+      <c r="M13" s="103">
+        <v>8</v>
+      </c>
+      <c r="N13" s="103">
         <v>4</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="103">
         <v>0</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="64">
-        <v>8</v>
-      </c>
-      <c r="C14" s="65" t="s">
+      <c r="B14" s="108">
+        <v>8</v>
+      </c>
+      <c r="C14" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="64">
-        <v>8</v>
-      </c>
-      <c r="I14" s="64">
-        <v>8</v>
-      </c>
-      <c r="J14" s="64">
-        <v>8</v>
-      </c>
-      <c r="K14" s="64">
-        <v>8</v>
-      </c>
-      <c r="L14" s="64">
-        <v>8</v>
-      </c>
-      <c r="M14" s="64">
-        <v>8</v>
-      </c>
-      <c r="N14" s="64">
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="103">
+        <v>8</v>
+      </c>
+      <c r="I14" s="103">
+        <v>8</v>
+      </c>
+      <c r="J14" s="103">
+        <v>8</v>
+      </c>
+      <c r="K14" s="103">
+        <v>8</v>
+      </c>
+      <c r="L14" s="103">
+        <v>8</v>
+      </c>
+      <c r="M14" s="103">
+        <v>8</v>
+      </c>
+      <c r="N14" s="103">
         <v>4</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="103">
         <v>2</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="64">
-        <v>8</v>
-      </c>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="108">
+        <v>8</v>
+      </c>
+      <c r="C15" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="64">
-        <v>8</v>
-      </c>
-      <c r="I15" s="64">
-        <v>8</v>
-      </c>
-      <c r="J15" s="64">
-        <v>8</v>
-      </c>
-      <c r="K15" s="64">
-        <v>8</v>
-      </c>
-      <c r="L15" s="64">
-        <v>8</v>
-      </c>
-      <c r="M15" s="64">
-        <v>8</v>
-      </c>
-      <c r="N15" s="64">
-        <v>8</v>
-      </c>
-      <c r="O15" s="64">
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="103">
+        <v>8</v>
+      </c>
+      <c r="I15" s="103">
+        <v>8</v>
+      </c>
+      <c r="J15" s="103">
+        <v>8</v>
+      </c>
+      <c r="K15" s="103">
+        <v>8</v>
+      </c>
+      <c r="L15" s="103">
+        <v>8</v>
+      </c>
+      <c r="M15" s="103">
+        <v>8</v>
+      </c>
+      <c r="N15" s="103">
+        <v>8</v>
+      </c>
+      <c r="O15" s="103">
         <v>4</v>
       </c>
-      <c r="P15" s="64">
+      <c r="P15" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="103">
         <v>2</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60">
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103">
         <v>2</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="103">
         <v>2</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="103">
         <v>1</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="103">
         <v>1</v>
       </c>
-      <c r="L16" s="60">
+      <c r="L16" s="103">
         <v>1</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="103">
         <v>1</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="103">
         <v>1</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="103">
         <v>1</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="60">
-        <v>8</v>
-      </c>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="103">
+        <v>8</v>
+      </c>
+      <c r="C17" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60">
-        <v>9</v>
-      </c>
-      <c r="I17" s="60">
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103">
+        <v>8</v>
+      </c>
+      <c r="I17" s="103">
         <v>7</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="103">
         <v>6</v>
       </c>
-      <c r="K17" s="60">
-        <v>5</v>
-      </c>
-      <c r="L17" s="60">
+      <c r="K17" s="103">
+        <v>5</v>
+      </c>
+      <c r="L17" s="103">
         <v>4</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="103">
         <v>3</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="103">
         <v>2</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="103">
         <v>1</v>
       </c>
-      <c r="P17" s="60">
+      <c r="P17" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="103">
         <v>32</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60">
-        <v>30</v>
-      </c>
-      <c r="I18" s="60">
-        <v>8</v>
-      </c>
-      <c r="J18" s="60">
-        <v>8</v>
-      </c>
-      <c r="K18" s="60">
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103">
+        <v>32</v>
+      </c>
+      <c r="I18" s="103">
+        <v>8</v>
+      </c>
+      <c r="J18" s="103">
+        <v>8</v>
+      </c>
+      <c r="K18" s="103">
         <v>6</v>
       </c>
-      <c r="L18" s="60">
+      <c r="L18" s="103">
         <v>6</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="103">
         <v>6</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18" s="103">
         <v>4</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="103">
         <v>4</v>
       </c>
-      <c r="P18" s="60">
+      <c r="P18" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="102">
         <v>2</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59">
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103">
         <v>2</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="103">
         <v>0</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="103">
         <v>0</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="103">
         <v>0</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="103">
         <v>0</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="103">
         <v>0</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="103">
         <v>0</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="103">
         <v>0</v>
       </c>
-      <c r="P19" s="84">
+      <c r="P19" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="108">
         <v>4</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86">
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="103">
         <v>4</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="103">
         <v>4</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="103">
         <v>4</v>
       </c>
-      <c r="K20" s="86">
+      <c r="K20" s="103">
         <v>4</v>
       </c>
-      <c r="L20" s="86">
+      <c r="L20" s="103">
         <v>4</v>
       </c>
-      <c r="M20" s="86">
+      <c r="M20" s="103">
         <v>4</v>
       </c>
-      <c r="N20" s="86">
+      <c r="N20" s="103">
         <v>4</v>
       </c>
-      <c r="O20" s="86">
+      <c r="O20" s="103">
         <v>2</v>
       </c>
-      <c r="P20" s="86">
+      <c r="P20" s="103">
         <v>0</v>
       </c>
     </row>
@@ -4035,6 +4006,194 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H4:P4">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:P20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:P5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:P6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:P7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:P8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:P9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:P10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:P11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:P12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:P13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:P14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:P15">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:P16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:P17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:P18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:P19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:P20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4057,53 +4216,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="8"/>
-    <col min="2" max="10" width="7.109375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="17.109375" style="8"/>
+    <col min="1" max="1" width="17.140625" style="8"/>
+    <col min="2" max="10" width="7.140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="17.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="113" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>130</v>
       </c>
@@ -4135,7 +4294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="15">
         <v>1</v>
@@ -4173,7 +4332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>129</v>
       </c>
@@ -4214,7 +4373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>128</v>
       </c>
@@ -4254,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>127</v>
       </c>
@@ -4264,7 +4423,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4272,7 +4431,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4280,7 +4439,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4288,7 +4447,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4296,7 +4455,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4304,7 +4463,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4312,7 +4471,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4320,7 +4479,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4328,7 +4487,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4336,7 +4495,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4344,7 +4503,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4352,7 +4511,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4360,7 +4519,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4368,7 +4527,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4376,7 +4535,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4384,7 +4543,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4392,7 +4551,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4400,7 +4559,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
